--- a/Plotting_WithinGroup.xlsx
+++ b/Plotting_WithinGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Minds and Machines\Data and Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98BD1F-C4B6-4F86-B0AF-74B790BDFB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF36849-D223-4FAE-9F43-416B08638B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrorist scenario" sheetId="17" r:id="rId1"/>
@@ -140,9 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,7 +428,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -564,132 +566,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF7FF3D-6679-41FF-81D2-6D2DAD07472B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.61250000000000004</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.49</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.45</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.53</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.45901639344262296</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.52</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>0.75</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="D6">
-        <v>0.33</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="3">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>0.61194029850746268</v>
-      </c>
-      <c r="D7">
-        <v>0.36</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="3">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92453226-D46B-4E28-8879-0CD00DA8FD7B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
